--- a/CASUAL/LA CENRO/GUEVARRA, ROLANDO.xlsx
+++ b/CASUAL/LA CENRO/GUEVARRA, ROLANDO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CENRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CENRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B4D78-AA39-4900-A581-EBDAC0396F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -26,25 +27,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -323,12 +316,15 @@
   </si>
   <si>
     <t>4/9,15,16/2022</t>
+  </si>
+  <si>
+    <t>1/24,25/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -559,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,9 +690,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,17 +705,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -732,6 +722,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,7 +1236,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1260,25 +1253,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K93" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K93" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1290,25 +1283,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K65" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K65" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1615,47 +1608,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
+      <selection pane="bottomLeft" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
@@ -1663,32 +1656,32 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="52"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
@@ -1701,7 +1694,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1709,7 +1702,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1722,24 +1715,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1783,7 +1776,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56.641000000000005</v>
+        <v>60.391000000000005</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1793,12 +1786,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>87.5</v>
+        <v>89.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>54</v>
       </c>
@@ -1813,7 +1806,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1833,7 +1826,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1853,7 +1846,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1873,7 +1866,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1893,7 +1886,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1913,7 +1906,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1933,7 +1926,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1953,7 +1946,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1973,7 +1966,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -1993,7 +1986,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -2013,7 +2006,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -2033,7 +2026,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -2057,7 +2050,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>55</v>
       </c>
@@ -2075,7 +2068,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2095,7 +2088,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2115,7 +2108,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2135,7 +2128,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2155,7 +2148,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2175,7 +2168,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2195,7 +2188,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2215,7 +2208,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2235,7 +2228,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2255,7 +2248,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2275,7 +2268,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2295,7 +2288,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="41"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2319,7 +2312,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
         <v>56</v>
       </c>
@@ -2337,7 +2330,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2357,7 +2350,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>43862</v>
       </c>
@@ -2377,7 +2370,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>43891</v>
       </c>
@@ -2397,7 +2390,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>43922</v>
       </c>
@@ -2417,7 +2410,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="41"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43952</v>
       </c>
@@ -2437,7 +2430,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>43983</v>
       </c>
@@ -2457,7 +2450,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="41"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44013</v>
       </c>
@@ -2477,7 +2470,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44044</v>
       </c>
@@ -2497,7 +2490,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44075</v>
       </c>
@@ -2517,7 +2510,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44105</v>
       </c>
@@ -2537,7 +2530,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44136</v>
       </c>
@@ -2557,7 +2550,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44166</v>
       </c>
@@ -2581,7 +2574,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
         <v>36</v>
       </c>
@@ -2596,7 +2589,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>44197</v>
       </c>
@@ -2616,7 +2609,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44228</v>
       </c>
@@ -2636,7 +2629,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>44256</v>
       </c>
@@ -2656,7 +2649,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>44287</v>
       </c>
@@ -2676,7 +2669,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>44317</v>
       </c>
@@ -2696,7 +2689,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44348</v>
       </c>
@@ -2716,7 +2709,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44378</v>
       </c>
@@ -2736,7 +2729,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>44409</v>
       </c>
@@ -2756,7 +2749,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>44440</v>
       </c>
@@ -2776,7 +2769,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44470</v>
       </c>
@@ -2796,7 +2789,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44501</v>
       </c>
@@ -2816,7 +2809,7 @@
       <c r="J60" s="13"/>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44531</v>
       </c>
@@ -2836,7 +2829,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
         <v>40</v>
       </c>
@@ -2854,7 +2847,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2874,7 +2867,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44593</v>
       </c>
@@ -2894,7 +2887,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>44621</v>
       </c>
@@ -2914,7 +2907,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>44652</v>
       </c>
@@ -2940,7 +2933,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>44682</v>
       </c>
@@ -2966,7 +2959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>44713</v>
       </c>
@@ -2992,7 +2985,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="21" t="s">
         <v>90</v>
@@ -3012,7 +3005,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>44743</v>
       </c>
@@ -3038,7 +3031,7 @@
         <v>44760</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24"/>
       <c r="B71" s="21" t="s">
         <v>87</v>
@@ -3058,7 +3051,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="41"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>44774</v>
       </c>
@@ -3084,7 +3077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <v>44805</v>
       </c>
@@ -3108,7 +3101,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>44835</v>
       </c>
@@ -3134,7 +3127,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
       <c r="B75" s="21" t="s">
         <v>85</v>
@@ -3154,7 +3147,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="41"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>44866</v>
       </c>
@@ -3174,7 +3167,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>44896</v>
       </c>
@@ -3198,7 +3191,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="41"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="21" t="s">
         <v>83</v>
@@ -3218,7 +3211,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="41"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>78</v>
       </c>
@@ -3236,8 +3229,8 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="48">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="47">
         <v>44927</v>
       </c>
       <c r="B80" s="21"/>
@@ -3256,8 +3249,8 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="48">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="47">
         <v>44958</v>
       </c>
       <c r="B81" s="21"/>
@@ -3276,8 +3269,8 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="48">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="47">
         <v>44986</v>
       </c>
       <c r="B82" s="21"/>
@@ -3296,8 +3289,8 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="48">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="47">
         <v>45017</v>
       </c>
       <c r="B83" s="21"/>
@@ -3316,8 +3309,8 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="48">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="47">
         <v>45047</v>
       </c>
       <c r="B84" s="21"/>
@@ -3336,28 +3329,28 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="48">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="47">
         <v>45078</v>
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="14">
         <v>1.25</v>
       </c>
-      <c r="D85" s="50"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="10"/>
       <c r="F85" s="16"/>
-      <c r="G85" s="49">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H85" s="50"/>
+      <c r="G85" s="48">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H85" s="49"/>
       <c r="I85" s="10"/>
       <c r="J85" s="13"/>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="48">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="47">
         <v>45108</v>
       </c>
       <c r="B86" s="21"/>
@@ -3376,8 +3369,8 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="48">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="47">
         <v>45139</v>
       </c>
       <c r="B87" s="21"/>
@@ -3396,8 +3389,8 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="48">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="47">
         <v>45170</v>
       </c>
       <c r="B88" s="21"/>
@@ -3416,8 +3409,8 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="48">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="47">
         <v>45200</v>
       </c>
       <c r="B89" s="21" t="s">
@@ -3440,43 +3433,47 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="48">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="47">
         <v>45231</v>
       </c>
       <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
+      <c r="C90" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="40"/>
       <c r="E90" s="9"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="40"/>
       <c r="I90" s="9"/>
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="48">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="47">
         <v>45261</v>
       </c>
       <c r="B91" s="21"/>
-      <c r="C91" s="14"/>
+      <c r="C91" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="40"/>
       <c r="E91" s="9"/>
       <c r="F91" s="21"/>
-      <c r="G91" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="40"/>
       <c r="I91" s="9"/>
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38" t="s">
         <v>81</v>
       </c>
@@ -3494,43 +3491,51 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="48">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="47">
         <v>45292</v>
       </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="14"/>
+      <c r="B93" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="40"/>
       <c r="E93" s="9"/>
       <c r="F93" s="21"/>
-      <c r="G93" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="40"/>
+      <c r="G93" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H93" s="40">
+        <v>2</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
+      <c r="K93" s="21" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3553,47 +3558,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A46" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="K57" sqref="B57:K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
@@ -3601,32 +3606,32 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="52"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
@@ -3639,7 +3644,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3647,7 +3652,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3660,24 +3665,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3712,7 +3717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3736,7 +3741,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>54</v>
       </c>
@@ -3758,7 +3763,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -3779,7 +3784,7 @@
         <v>43116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -3800,7 +3805,7 @@
         <v>43142</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="12" t="s">
         <v>53</v>
@@ -3819,7 +3824,7 @@
         <v>43156</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43160</v>
       </c>
@@ -3840,7 +3845,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="12" t="s">
         <v>37</v>
@@ -3859,7 +3864,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="12" t="s">
         <v>60</v>
@@ -3876,7 +3881,7 @@
         <v>43185</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43191</v>
       </c>
@@ -3895,7 +3900,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43221</v>
       </c>
@@ -3916,7 +3921,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="12" t="s">
         <v>53</v>
@@ -3935,7 +3940,7 @@
         <v>43241</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43252</v>
       </c>
@@ -3959,7 +3964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43282</v>
       </c>
@@ -3983,7 +3988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="12" t="s">
         <v>53</v>
@@ -4005,7 +4010,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="12" t="s">
         <v>64</v>
@@ -4027,7 +4032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43344</v>
       </c>
@@ -4051,7 +4056,7 @@
         <v>43365</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="12" t="s">
         <v>64</v>
@@ -4073,7 +4078,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43374</v>
       </c>
@@ -4095,8 +4100,8 @@
         <v>43380</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="46">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
         <v>43405</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -4116,7 +4121,7 @@
         <v>43408</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>55</v>
       </c>
@@ -4134,8 +4139,8 @@
       <c r="J28" s="12"/>
       <c r="K28" s="41"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="46">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
         <v>43466</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -4158,8 +4163,8 @@
         <v>43485</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="46">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
         <v>43497</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -4182,8 +4187,8 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
       <c r="B31" s="12" t="s">
         <v>53</v>
       </c>
@@ -4204,8 +4209,8 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="46">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
         <v>43525</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -4228,8 +4233,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="46">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
         <v>43556</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -4252,8 +4257,8 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="46">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
         <v>43617</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -4276,7 +4281,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43647</v>
       </c>
@@ -4297,7 +4302,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>53</v>
@@ -4316,7 +4321,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>43709</v>
       </c>
@@ -4337,8 +4342,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="46">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
         <v>43739</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -4354,7 +4359,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="21" t="s">
         <v>53</v>
@@ -4373,7 +4378,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="12" t="s">
         <v>53</v>
@@ -4392,7 +4397,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43770</v>
       </c>
@@ -4413,7 +4418,7 @@
         <v>43771</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="12" t="s">
         <v>53</v>
@@ -4432,7 +4437,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>43800</v>
       </c>
@@ -4453,7 +4458,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="12" t="s">
         <v>57</v>
@@ -4470,7 +4475,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
         <v>56</v>
       </c>
@@ -4485,7 +4490,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>43862</v>
       </c>
@@ -4506,7 +4511,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="13" t="s">
         <v>53</v>
@@ -4521,11 +4526,11 @@
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="47">
+      <c r="K47" s="46">
         <v>43517</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44013</v>
       </c>
@@ -4546,8 +4551,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="46">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="24">
         <v>44075</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -4567,7 +4572,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
         <v>36</v>
       </c>
@@ -4582,7 +4587,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44348</v>
       </c>
@@ -4606,7 +4611,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
       <c r="B52" s="12" t="s">
         <v>37</v>
@@ -4628,7 +4633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
         <v>40</v>
       </c>
@@ -4646,7 +4651,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>44682</v>
       </c>
@@ -4670,7 +4675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44743</v>
       </c>
@@ -4694,7 +4699,7 @@
         <v>44760</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44774</v>
       </c>
@@ -4718,7 +4723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>44835</v>
       </c>
@@ -4742,7 +4747,7 @@
         <v>44839</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>44896</v>
       </c>
@@ -4766,7 +4771,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="s">
         <v>78</v>
       </c>
@@ -4781,7 +4786,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44958</v>
       </c>
@@ -4802,7 +4807,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="12" t="s">
         <v>53</v>
@@ -4821,7 +4826,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>45078</v>
       </c>
@@ -4842,7 +4847,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>45108</v>
       </c>
@@ -4863,7 +4868,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>45231</v>
       </c>
@@ -4884,7 +4889,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -4912,10 +4917,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4938,41 +4943,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5001,7 +5006,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="39">
         <v>225</v>
       </c>
@@ -5027,7 +5032,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -5042,10 +5047,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -5058,14 +5063,14 @@
       <c r="F6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -5091,7 +5096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -5117,7 +5122,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -5143,7 +5148,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -5169,7 +5174,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -5195,7 +5200,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -5221,7 +5226,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -5247,7 +5252,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -5273,7 +5278,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -5293,7 +5298,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -5313,7 +5318,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -5333,7 +5338,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -5354,7 +5359,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -5375,7 +5380,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -5396,7 +5401,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -5417,7 +5422,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -5438,7 +5443,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -5459,7 +5464,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -5480,7 +5485,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -5501,7 +5506,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -5522,7 +5527,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -5543,7 +5548,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -5564,7 +5569,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -5585,7 +5590,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -5606,7 +5611,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -5627,7 +5632,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -5648,7 +5653,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -5669,7 +5674,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -5690,7 +5695,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -5711,7 +5716,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -5732,7 +5737,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -5753,7 +5758,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -5762,7 +5767,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -5771,7 +5776,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -5780,7 +5785,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -5789,7 +5794,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -5798,7 +5803,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -5807,7 +5812,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -5816,7 +5821,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -5825,7 +5830,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -5834,7 +5839,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -5843,7 +5848,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -5852,7 +5857,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -5861,7 +5866,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -5870,7 +5875,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -5879,7 +5884,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -5888,7 +5893,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -5897,7 +5902,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -5906,7 +5911,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -5915,7 +5920,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -5924,7 +5929,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -5933,7 +5938,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -5942,7 +5947,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -5951,7 +5956,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -5960,7 +5965,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -5969,7 +5974,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -5978,7 +5983,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -5987,7 +5992,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -5996,7 +6001,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -6005,7 +6010,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -6014,7 +6019,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
